--- a/Research/Tests/DownscalingNew.xlsx
+++ b/Research/Tests/DownscalingNew.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute" sheetId="2" r:id="rId1"/>
     <sheet name="Graph Gear Attributes" sheetId="3" r:id="rId2"/>
     <sheet name="Data Attributes" sheetId="1" r:id="rId3"/>
     <sheet name="Retaliation" sheetId="4" r:id="rId4"/>
+    <sheet name="Weapon" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Known facts:</t>
   </si>
@@ -252,6 +253,45 @@
   </si>
   <si>
     <t>Attributes</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Fine</t>
+  </si>
+  <si>
+    <t>Masterwork</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Exotic</t>
+  </si>
+  <si>
+    <t>Ascended</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Coeff</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Wep</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
 </sst>
 </file>
@@ -337,7 +377,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -610,7 +649,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -881,7 +920,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -1152,7 +1191,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -1423,7 +1462,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -1694,7 +1733,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -1965,7 +2004,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -2232,7 +2271,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -2499,7 +2538,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -2766,7 +2805,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -3033,7 +3072,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -3300,7 +3339,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -3374,7 +3413,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3613,7 +3651,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.9998530862383781</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
                   <c:v>1.0001564978793347</c:v>
@@ -3655,11 +3693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325397712"/>
-        <c:axId val="325389552"/>
+        <c:axId val="337797248"/>
+        <c:axId val="337797792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="325397712"/>
+        <c:axId val="337797248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,12 +3740,12 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325389552"/>
+        <c:crossAx val="337797792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325389552"/>
+        <c:axId val="337797792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3758,7 +3796,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325397712"/>
+        <c:crossAx val="337797248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4151,7 +4189,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.77488614183474303</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.81912817176317498</c:v>
@@ -4193,11 +4231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325394448"/>
-        <c:axId val="325394992"/>
+        <c:axId val="337796160"/>
+        <c:axId val="337796704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="325394448"/>
+        <c:axId val="337796160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,12 +4278,12 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325394992"/>
+        <c:crossAx val="337796704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325394992"/>
+        <c:axId val="337796704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,7 +4334,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325394448"/>
+        <c:crossAx val="337796160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4360,7 +4398,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4919,11 +4956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="557173744"/>
-        <c:axId val="557166672"/>
+        <c:axId val="339922704"/>
+        <c:axId val="339927056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="557173744"/>
+        <c:axId val="339922704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4966,7 +5003,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557166672"/>
+        <c:crossAx val="339927056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4974,7 +5011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="557166672"/>
+        <c:axId val="339927056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5062,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557173744"/>
+        <c:crossAx val="339922704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5039,7 +5076,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7165,7 +7201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -8413,8 +8449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9595,19 +9631,19 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>-775</v>
-      </c>
-      <c r="C71" s="1" t="e">
+        <v>1191</v>
+      </c>
+      <c r="C71" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D71" s="1" t="e">
+        <v>0.77488614183474303</v>
+      </c>
+      <c r="D71" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
+        <v>0.9998530862383781</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -10851,7 +10887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -12099,4 +12135,354 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1">
+        <v>542</v>
+      </c>
+      <c r="O1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>551</v>
+      </c>
+      <c r="C2">
+        <v>609</v>
+      </c>
+      <c r="D2">
+        <f>(B2+C2)/2</f>
+        <v>580</v>
+      </c>
+      <c r="E2">
+        <f>D5/D2</f>
+        <v>1.4551724137931035</v>
+      </c>
+      <c r="G2">
+        <v>253</v>
+      </c>
+      <c r="H2">
+        <v>279</v>
+      </c>
+      <c r="I2">
+        <f>(G2+H2)/2</f>
+        <v>266</v>
+      </c>
+      <c r="J2">
+        <f>I5/I2</f>
+        <v>1.4755639097744362</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <v>1.8</v>
+      </c>
+      <c r="O2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>690</v>
+      </c>
+      <c r="C3">
+        <v>762</v>
+      </c>
+      <c r="D3">
+        <f>(B3+C3)/2</f>
+        <v>726</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>497</v>
+      </c>
+      <c r="O3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>745</v>
+      </c>
+      <c r="C4">
+        <v>823</v>
+      </c>
+      <c r="D4">
+        <f>(B4+C4)/2</f>
+        <v>784</v>
+      </c>
+      <c r="E4">
+        <f>D5/D4</f>
+        <v>1.0765306122448979</v>
+      </c>
+      <c r="G4">
+        <v>344</v>
+      </c>
+      <c r="H4">
+        <v>380</v>
+      </c>
+      <c r="I4">
+        <f>(G4+H4)/2</f>
+        <v>362</v>
+      </c>
+      <c r="J4">
+        <f>I5/I4</f>
+        <v>1.0842541436464088</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>624</v>
+      </c>
+      <c r="O4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>802</v>
+      </c>
+      <c r="C5">
+        <v>886</v>
+      </c>
+      <c r="D5">
+        <f>(B5+C5)/2</f>
+        <v>844</v>
+      </c>
+      <c r="E5">
+        <f>D7/D5</f>
+        <v>1.1848341232227488</v>
+      </c>
+      <c r="G5">
+        <v>373</v>
+      </c>
+      <c r="H5">
+        <v>412</v>
+      </c>
+      <c r="I5">
+        <f>(G5+H5)/2</f>
+        <v>392.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <f>M1/M2/M3*M4</f>
+        <v>378.05499664654587</v>
+      </c>
+      <c r="O5">
+        <f>O1/O2/O3*O4</f>
+        <v>289.2433537832311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>905</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <f>(B6+C6)/2</f>
+        <v>952.5</v>
+      </c>
+      <c r="E6">
+        <f>D7/D6</f>
+        <v>1.0498687664041995</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <f>G5*E5</f>
+        <v>441.94312796208533</v>
+      </c>
+      <c r="O6">
+        <f>K5*G5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>950</v>
+      </c>
+      <c r="C7">
+        <v>1050</v>
+      </c>
+      <c r="D7">
+        <f>(B7+C7)/2</f>
+        <v>1000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>62</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>253</v>
+      </c>
+      <c r="C11">
+        <v>279</v>
+      </c>
+      <c r="D11">
+        <f>(B11+C11)/2</f>
+        <v>266</v>
+      </c>
+      <c r="E11">
+        <f>D14/D11</f>
+        <v>2.5432330827067671</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>597</v>
+      </c>
+      <c r="C13">
+        <v>659</v>
+      </c>
+      <c r="D13">
+        <f>(B13+C13)/2</f>
+        <v>628</v>
+      </c>
+      <c r="E13">
+        <f>D14/D13</f>
+        <v>1.0772292993630572</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>643</v>
+      </c>
+      <c r="C14">
+        <v>710</v>
+      </c>
+      <c r="D14">
+        <f>(B14+C14)/2</f>
+        <v>676.5</v>
+      </c>
+      <c r="E14">
+        <f>D15/D14</f>
+        <v>1.1308203991130821</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14">
+        <f>M10/M11/M12*M13</f>
+        <v>948.67579908675793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>727</v>
+      </c>
+      <c r="C15">
+        <v>803</v>
+      </c>
+      <c r="D15">
+        <f>(B15+C15)/2</f>
+        <v>765</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <f>I14*E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Research/Tests/DownscalingNew.xlsx
+++ b/Research/Tests/DownscalingNew.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute" sheetId="2" r:id="rId1"/>
@@ -12,8 +12,10 @@
     <sheet name="Data Attributes" sheetId="1" r:id="rId3"/>
     <sheet name="Retaliation" sheetId="4" r:id="rId4"/>
     <sheet name="Weapon" sheetId="5" r:id="rId5"/>
+    <sheet name="Defense" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -202,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>Known facts:</t>
   </si>
@@ -293,11 +295,50 @@
   <si>
     <t>Expected</t>
   </si>
+  <si>
+    <t>Level 45</t>
+  </si>
+  <si>
+    <t>Level 80</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Level 75</t>
+  </si>
+  <si>
+    <t>Level 40</t>
+  </si>
+  <si>
+    <t>Exo</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Msater</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,12 +362,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,10 +394,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
@@ -448,91 +504,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -541,16 +597,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -559,10 +615,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -571,7 +627,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -580,31 +636,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -619,28 +675,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -649,10 +705,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -661,22 +717,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,91 +775,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -812,16 +868,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -830,10 +886,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -842,7 +898,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -851,31 +907,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -890,28 +946,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -920,10 +976,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -932,22 +988,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,91 +1046,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1083,16 +1139,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1101,10 +1157,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1113,7 +1169,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1122,31 +1178,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1161,28 +1217,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1191,10 +1247,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1203,22 +1259,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,91 +1317,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1354,16 +1410,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1372,10 +1428,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1384,7 +1440,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1393,31 +1449,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1432,28 +1488,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1462,10 +1518,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1474,22 +1530,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1532,91 +1588,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1625,16 +1681,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1643,10 +1699,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1655,7 +1711,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1664,31 +1720,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1703,28 +1759,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1733,10 +1789,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1745,22 +1801,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,91 +1859,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1896,16 +1952,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1914,10 +1970,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1926,7 +1982,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1935,31 +1991,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -1974,28 +2030,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2004,10 +2060,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2016,22 +2072,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2070,91 +2126,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2163,16 +2219,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2181,10 +2237,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2193,7 +2249,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2202,31 +2258,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2241,28 +2297,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2271,10 +2327,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2283,22 +2339,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2337,91 +2393,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2430,16 +2486,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2448,10 +2504,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2460,7 +2516,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2469,31 +2525,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2508,28 +2564,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2538,10 +2594,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2550,22 +2606,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,91 +2660,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2697,16 +2753,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2715,10 +2771,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2727,7 +2783,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2736,31 +2792,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2775,28 +2831,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2805,10 +2861,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2817,22 +2873,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,91 +2927,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2964,16 +3020,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2982,10 +3038,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -2994,7 +3050,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3003,31 +3059,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3042,28 +3098,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3072,10 +3128,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3084,22 +3140,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3138,91 +3194,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3231,16 +3287,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3249,10 +3305,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3261,7 +3317,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3270,31 +3326,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3309,28 +3365,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3339,10 +3395,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3351,22 +3407,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,91 +3506,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="3" formatCode="0.00%">
-                  <c:v>0.10095797904561056</c:v>
+                  <c:v>9.9950024987506242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.10033444816053511</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00%">
-                  <c:v>0.11747271018578762</c:v>
+                  <c:v>0.11070853462157811</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00%">
-                  <c:v>0.13177075183449594</c:v>
+                  <c:v>0.12841680425609978</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.14324233232221101</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00%">
-                  <c:v>0.16090554844306393</c:v>
+                  <c:v>0.16362786348761105</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.17391304347826086</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.18840579710144928</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00%">
-                  <c:v>0.20701484592180755</c:v>
+                  <c:v>0.20421607378129117</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00%">
-                  <c:v>0.23313814790717852</c:v>
+                  <c:v>0.23550724637681161</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00%">
-                  <c:v>0.24940360008674908</c:v>
+                  <c:v>0.24758454106280195</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00%">
-                  <c:v>0.2652519893899204</c:v>
+                  <c:v>0.26755852842809363</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.27870680044593088</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.32608695652173908</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.3105590062111801</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00%">
-                  <c:v>0.32530904359141183</c:v>
+                  <c:v>0.32367149758454111</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.33816425120772953</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.35790031813361611</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.42417815482502652</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00%">
-                  <c:v>0.39841219945465045</c:v>
+                  <c:v>0.39895782445855726</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.46816479400749061</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.51062551625741537</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.53394355453852027</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.57971014492753625</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00%">
-                  <c:v>0.53908355795148244</c:v>
+                  <c:v>0.60041407867494823</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3543,16 +3599,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00%">
-                  <c:v>0.56959772160911348</c:v>
+                  <c:v>0.63439978124145469</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00%">
-                  <c:v>0.57984910226118325</c:v>
+                  <c:v>0.64581744215611503</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00%">
-                  <c:v>0.59942190983073262</c:v>
+                  <c:v>0.66761701116654792</c:v>
                 </c:pt>
                 <c:pt idx="38" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3561,10 +3617,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="40" formatCode="0.00%">
-                  <c:v>0.63059906911565977</c:v>
+                  <c:v>0.7023411371237458</c:v>
                 </c:pt>
                 <c:pt idx="41" formatCode="0.00%">
-                  <c:v>0.63943267594185826</c:v>
+                  <c:v>0.71217972675553343</c:v>
                 </c:pt>
                 <c:pt idx="42" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3573,7 +3629,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44" formatCode="0.00%">
-                  <c:v>0.66980521575926089</c:v>
+                  <c:v>0.74600769320433613</c:v>
                 </c:pt>
                 <c:pt idx="45" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3582,31 +3638,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="47" formatCode="0.00%">
-                  <c:v>0.69972133904567835</c:v>
+                  <c:v>0.77932731747333883</c:v>
                 </c:pt>
                 <c:pt idx="48" formatCode="0.00%">
-                  <c:v>0.71046267539067776</c:v>
+                  <c:v>0.79129067541700859</c:v>
                 </c:pt>
                 <c:pt idx="49" formatCode="0.00%">
-                  <c:v>0.72001734981565824</c:v>
+                  <c:v>0.80193236714975846</c:v>
                 </c:pt>
                 <c:pt idx="50" formatCode="0.00%">
-                  <c:v>0.73013807561627997</c:v>
+                  <c:v>0.81320450885668283</c:v>
                 </c:pt>
                 <c:pt idx="51" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00%">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.83484299516908211</c:v>
                 </c:pt>
                 <c:pt idx="53" formatCode="0.00%">
-                  <c:v>0.76033015678620175</c:v>
+                  <c:v>0.84683148621767546</c:v>
                 </c:pt>
                 <c:pt idx="54" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="0.00%">
-                  <c:v>0.77953685630979053</c:v>
+                  <c:v>0.86822329575952761</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3621,28 +3677,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="0.00%">
-                  <c:v>0.88050314465408808</c:v>
+                  <c:v>0.98067632850241548</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="0.00%">
-                  <c:v>0.89998748021977337</c:v>
+                  <c:v>1.002377360215791</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="0.00%">
-                  <c:v>0.93988990139434847</c:v>
+                  <c:v>1.046819404668923</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="0.00%">
-                  <c:v>0.96991145855988514</c:v>
+                  <c:v>1.0802564578308287</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="0.00%">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="0.00%">
-                  <c:v>0.98957338294112829</c:v>
+                  <c:v>1.1021552823047205</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3651,10 +3707,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="0.00%">
-                  <c:v>0.9998530862383781</c:v>
+                  <c:v>1.1136044880785414</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="0.00%">
-                  <c:v>1.0001564978793347</c:v>
+                  <c:v>1.1139424182902444</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="0.00%">
                   <c:v>#N/A</c:v>
@@ -3663,22 +3719,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="0.00%">
-                  <c:v>0.9996750679077917</c:v>
+                  <c:v>1.1134062169378811</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="0.00%">
-                  <c:v>0.99742332308203807</c:v>
+                  <c:v>1.1108982953457192</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.00%">
-                  <c:v>1.0002894820564117</c:v>
+                  <c:v>1.1140905318265977</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="0.00%">
-                  <c:v>0.98615697491233023</c:v>
+                  <c:v>1.0983501959711968</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="0.00%">
-                  <c:v>0.9997967670964566</c:v>
+                  <c:v>1.113541761613952</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="0.00%">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,11 +3749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337797248"/>
-        <c:axId val="337797792"/>
+        <c:axId val="700872352"/>
+        <c:axId val="700857120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337797248"/>
+        <c:axId val="700872352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3740,12 +3796,12 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337797792"/>
+        <c:crossAx val="700857120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337797792"/>
+        <c:axId val="700857120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3796,7 +3852,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337797248"/>
+        <c:crossAx val="700872352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3860,7 +3916,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3892,7 +3947,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2016534370450663E-2"/>
+          <c:y val="0.10000622653631927"/>
+          <c:w val="0.91373245348380039"/>
+          <c:h val="0.84960832729503355"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3950,7 +4015,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3988,91 +4052,91 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="77"/>
                 <c:pt idx="0">
-                  <c:v>5.8555627846454128E-3</c:v>
+                  <c:v>5.7971014492753624E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.5217391304347823E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4580351333767081E-3</c:v>
+                  <c:v>7.9710144927536229E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.040988939492518E-2</c:v>
+                  <c:v>1.0144927536231883E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.2318840579710146E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4964216005204945E-2</c:v>
+                  <c:v>1.5217391304347827E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.7391304347826087E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.8840579710144929E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2771633051398829E-2</c:v>
+                  <c:v>2.2463768115942029E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>2.391304347826087E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.797657774886142E-2</c:v>
+                  <c:v>2.8260869565217391E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.992843201040989E-2</c:v>
+                  <c:v>2.9710144927536233E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4482758620689655E-2</c:v>
+                  <c:v>3.4782608695652174E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.6231884057971016E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.5652173913043478E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3478260869565216E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8796356538711776E-2</c:v>
+                  <c:v>4.8550724637681161E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.0724637681159424E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.8695652173913045E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.9565217391304349E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0917371502927776E-2</c:v>
+                  <c:v>7.101449275362319E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.8550724637681164E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.11159420289855072</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.13043478260869565</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.13207547169811321</c:v>
+                  <c:v>0.14710144927536231</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>#N/A</c:v>
@@ -4081,16 +4145,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.15094339622641509</c:v>
+                  <c:v>0.1681159420289855</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1652569941444372</c:v>
+                  <c:v>0.18405797101449275</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.18282368249837344</c:v>
+                  <c:v>0.2036231884057971</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>#N/A</c:v>
@@ -4099,10 +4163,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.20494469746258945</c:v>
+                  <c:v>0.22826086956521738</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.22316200390370852</c:v>
+                  <c:v>0.24855072463768116</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>#N/A</c:v>
@@ -4111,7 +4175,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2498373454782043</c:v>
+                  <c:v>0.27826086956521739</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>#N/A</c:v>
@@ -4120,31 +4184,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2966818477553676</c:v>
+                  <c:v>0.33043478260869563</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.30123617436564737</c:v>
+                  <c:v>0.33550724637681162</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.32400780741704621</c:v>
+                  <c:v>0.36086956521739133</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.32856213402732598</c:v>
+                  <c:v>0.36594202898550726</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.4007246376811594</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.38776837996096292</c:v>
+                  <c:v>0.43188405797101448</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.42094990240728691</c:v>
+                  <c:v>0.46884057971014492</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>#N/A</c:v>
@@ -4159,28 +4223,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.52830188679245282</c:v>
+                  <c:v>0.58840579710144925</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.57059206245933636</c:v>
+                  <c:v>0.63550724637681155</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.62784645413142481</c:v>
+                  <c:v>0.69927536231884058</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.68184775536759923</c:v>
+                  <c:v>0.75942028985507248</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.73129472999349376</c:v>
+                  <c:v>0.8144927536231884</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>#N/A</c:v>
@@ -4189,10 +4253,10 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.77488614183474303</c:v>
+                  <c:v>0.86304347826086958</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.81912817176317498</c:v>
+                  <c:v>0.91231884057971013</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>#N/A</c:v>
@@ -4201,22 +4265,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.86271958360442424</c:v>
+                  <c:v>0.96086956521739131</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.90566037735849059</c:v>
+                  <c:v>1.008695652173913</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.90826284970722182</c:v>
+                  <c:v>1.0115942028985507</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.94079375406636301</c:v>
+                  <c:v>1.0478260869565217</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.95380611581001951</c:v>
+                  <c:v>1.0623188405797102</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>1.113768115942029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,11 +4295,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337796160"/>
-        <c:axId val="337796704"/>
+        <c:axId val="636993344"/>
+        <c:axId val="636990624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337796160"/>
+        <c:axId val="636993344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,12 +4342,12 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337796704"/>
+        <c:crossAx val="636990624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337796704"/>
+        <c:axId val="636990624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,7 +4398,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337796160"/>
+        <c:crossAx val="636993344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4956,11 +5020,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="339922704"/>
-        <c:axId val="339927056"/>
+        <c:axId val="468038672"/>
+        <c:axId val="376119120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="339922704"/>
+        <c:axId val="468038672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5003,7 +5067,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339927056"/>
+        <c:crossAx val="376119120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5011,7 +5075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339927056"/>
+        <c:axId val="376119120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +5126,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339922704"/>
+        <c:crossAx val="468038672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6814,16 +6878,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6844,16 +6908,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7333,11 +7397,11 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <f ca="1">B11-INDIRECT("'Data Attributes'!B"&amp;B9)</f>
+        <f t="shared" ref="B13:G14" ca="1" si="0">B11-INDIRECT("'Data Attributes'!B"&amp;B9)</f>
         <v>1537</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:G13" ca="1" si="0">C11-INDIRECT("'Data Attributes'!B"&amp;C9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1403</v>
       </c>
       <c r="D13">
@@ -7362,27 +7426,27 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <f ca="1">B12-INDIRECT("'Data Attributes'!B"&amp;B10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>43</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:G14" ca="1" si="1">C12-INDIRECT("'Data Attributes'!B"&amp;C10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>40</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>27</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>20</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -7391,27 +7455,27 @@
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ref="B15:G15" ca="1" si="2">B14/B13</f>
+        <f t="shared" ref="B15:G15" ca="1" si="1">B14/B13</f>
         <v>2.797657774886142E-2</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.851033499643621E-2</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.8627838104639685E-2</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.7892561983471075E-2</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.7662517289073305E-2</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="1"/>
         <v>2.8787878787878789E-2</v>
       </c>
     </row>
@@ -7820,123 +7884,123 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:AE28" ca="1" si="3">B26-INDIRECT("'Data Attributes'!B"&amp;B24)</f>
+        <f t="shared" ref="B28:AE28" ca="1" si="2">B26-INDIRECT("'Data Attributes'!B"&amp;B24)</f>
         <v>1537</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="G28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="I28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="J28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="K28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="L28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="M28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="N28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="O28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="P28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="Q28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="R28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="S28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="T28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="U28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="V28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="W28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="X28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="Y28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="Z28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="AA28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="AB28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="AC28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="AD28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
       <c r="AE28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1537</v>
       </c>
     </row>
@@ -7945,123 +8009,123 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:AE29" ca="1" si="4">B27-INDIRECT("'Data Attributes'!B"&amp;B25)</f>
+        <f t="shared" ref="B29:AE29" ca="1" si="3">B27-INDIRECT("'Data Attributes'!B"&amp;B25)</f>
         <v>9</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-65</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>13</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-86</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-100</v>
       </c>
       <c r="I29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-100</v>
       </c>
       <c r="J29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>35</v>
       </c>
       <c r="K29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-110</v>
       </c>
       <c r="L29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>43</v>
       </c>
       <c r="M29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>46</v>
       </c>
       <c r="N29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>53</v>
       </c>
       <c r="O29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-130</v>
       </c>
       <c r="P29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-140</v>
       </c>
       <c r="Q29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-140</v>
       </c>
       <c r="R29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-150</v>
       </c>
       <c r="S29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-150</v>
       </c>
       <c r="T29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-164</v>
       </c>
       <c r="U29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-164</v>
       </c>
       <c r="V29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-178</v>
       </c>
       <c r="W29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>-178</v>
       </c>
       <c r="X29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>203</v>
       </c>
       <c r="Y29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>232</v>
       </c>
       <c r="Z29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>343</v>
       </c>
       <c r="AA29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>384</v>
       </c>
       <c r="AB29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>456</v>
       </c>
       <c r="AC29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>463</v>
       </c>
       <c r="AD29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>498</v>
       </c>
       <c r="AE29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>505</v>
       </c>
     </row>
@@ -8070,123 +8134,123 @@
         <v>14</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" ref="B30:AE30" ca="1" si="5">INDIRECT("'Data Attributes'!D"&amp;B25)</f>
+        <f t="shared" ref="B30:AE30" ca="1" si="4">INDIRECT("'Data Attributes'!D"&amp;B25)</f>
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.1</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.1</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.11</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.11</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.12</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.12</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.13</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.13</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.15</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.15</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.16400000000000001</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.16400000000000001</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.17799999999999999</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.17799999999999999</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.245</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.26500000000000001</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.34899999999999998</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.373</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.42399999999999999</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.42399999999999999</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.45</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0.45</v>
       </c>
     </row>
@@ -8195,123 +8259,123 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ref="B31:AE31" ca="1" si="6">B29/B28</f>
+        <f t="shared" ref="B31:AE31" ca="1" si="5">B29/B28</f>
         <v>5.8555627846454128E-3</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-4.2290175666883541E-2</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8.4580351333767081E-3</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.040988939492518E-2</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-5.595315549772284E-2</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.4964216005204945E-2</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-6.5061808718282363E-2</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-6.5061808718282363E-2</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2.2771633051398829E-2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-7.1567989590110612E-2</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2.797657774886142E-2</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2.992843201040989E-2</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-8.4580351333767081E-2</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-9.1086532205595316E-2</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-9.1086532205595316E-2</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-9.7592713077423551E-2</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-9.7592713077423551E-2</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-0.10670136629798309</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-0.10670136629798309</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-0.11581001951854261</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>-0.11581001951854261</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.13207547169811321</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.15094339622641509</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.22316200390370852</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.2498373454782043</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.2966818477553676</v>
       </c>
       <c r="AC31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.30123617436564737</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.32400780741704621</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.32856213402732598</v>
       </c>
     </row>
@@ -8320,123 +8384,123 @@
         <v>15</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" ref="B32:AE32" ca="1" si="7">B31/B30</f>
+        <f t="shared" ref="B32:AE32" ca="1" si="6">B31/B30</f>
         <v>0.10095797904561056</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.11747271018578762</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.13177075183449594</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282377</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.16090554844306393</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282355</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282355</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.20701484592180755</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282377</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.23313814790717852</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.24940360008674908</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.2652519893899204</v>
       </c>
       <c r="O32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="T32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="W32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>-0.65061808718282366</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.53908355795148244</v>
       </c>
       <c r="Y32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.56959772160911348</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.63943267594185826</v>
       </c>
       <c r="AA32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.66980521575926089</v>
       </c>
       <c r="AB32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.69972133904567835</v>
       </c>
       <c r="AC32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.71046267539067776</v>
       </c>
       <c r="AD32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.72001734981565824</v>
       </c>
       <c r="AE32" s="1">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0.73013807561627997</v>
       </c>
     </row>
@@ -8449,8 +8513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8460,6 +8524,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5">
+        <f>E1/100</f>
+        <v>0.1</v>
+      </c>
       <c r="L1" t="s">
         <v>6</v>
       </c>
@@ -8468,1334 +8539,2008 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G65" si="0">E2/100</f>
+        <v>0.1</v>
+      </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2">
-        <v>2537</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
       <c r="L3" t="s">
         <v>7</v>
       </c>
       <c r="M3">
         <f ca="1">M2-INDIRECT("'Data Attributes'!B"&amp;M1)</f>
-        <v>1537</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <f ca="1">A4-INDIRECT("'Data Attributes'!B"&amp;ROW())</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">IF(B4/$M$3 &gt; 0, B4/$M$3, NA())</f>
-        <v>5.8555627846454128E-3</v>
+        <v>5.7971014492753624E-3</v>
       </c>
       <c r="D4" s="1">
         <f ca="1">IF(C4/INDIRECT("'Data Attributes'!D"&amp;ROW()) &gt; 0,C4/INDIRECT("'Data Attributes'!D"&amp;ROW()), NA())</f>
-        <v>0.10095797904561056</v>
+        <v>9.9950024987506242E-2</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <f ca="1">1000*INDIRECT("'Data Attributes'!D"&amp;ROW()) + M$3 *INDIRECT("'Data Attributes'!D"&amp;ROW()) *E4/100</f>
+        <v>66.004000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <f ca="1">A5-INDIRECT("'Data Attributes'!B"&amp;ROW())</f>
-        <v>-65</v>
-      </c>
-      <c r="C5" s="1" t="e">
-        <f t="shared" ref="C5:C68" ca="1" si="0">IF(B5/$M$3 &gt; 0, B5/$M$3, NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="1" t="e">
-        <f t="shared" ref="D5:D68" ca="1" si="1">IF(C5/INDIRECT("'Data Attributes'!D"&amp;ROW()) &gt; 0,C5/INDIRECT("'Data Attributes'!D"&amp;ROW()), NA())</f>
-        <v>#N/A</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C68" ca="1" si="1">IF(B5/$M$3 &gt; 0, B5/$M$3, NA())</f>
+        <v>6.5217391304347823E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D68" ca="1" si="2">IF(C5/INDIRECT("'Data Attributes'!D"&amp;ROW()) &gt; 0,C5/INDIRECT("'Data Attributes'!D"&amp;ROW()), NA())</f>
+        <v>0.10033444816053511</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H24" ca="1" si="3">1000*INDIRECT("'Data Attributes'!D"&amp;ROW()) + M$3 *INDIRECT("'Data Attributes'!D"&amp;ROW()) *E5/100</f>
+        <v>73.97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <f ca="1">A6-INDIRECT("'Data Attributes'!B"&amp;ROW())</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.4580351333767081E-3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.9710144927536229E-3</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11747271018578762</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.11070853462157811</v>
+      </c>
+      <c r="E6">
+        <v>11.5</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.115</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="3"/>
+        <v>83.426400000000001</v>
       </c>
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <f ca="1">A7-INDIRECT("'Data Attributes'!B"&amp;ROW())</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.040988939492518E-2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0144927536231883E-2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13177075183449594</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.12841680425609978</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="3"/>
+        <v>93.172600000000003</v>
       </c>
       <c r="I7" s="1"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B71" ca="1" si="2">A8-INDIRECT("'Data Attributes'!B"&amp;ROW())</f>
-        <v>-86</v>
-      </c>
-      <c r="C8" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D8" s="1" t="e">
+        <f t="shared" ref="B8:B71" ca="1" si="4">A8-INDIRECT("'Data Attributes'!B"&amp;ROW())</f>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>1.2318840579710146E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.14324233232221101</v>
+      </c>
+      <c r="E8">
+        <v>14.5</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="3"/>
+        <v>103.2086</v>
       </c>
       <c r="I8" s="1"/>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5217391304347827E-2</v>
+      </c>
+      <c r="D9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4964216005204945E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16090554844306393</v>
+        <v>0.16362786348761105</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="3"/>
+        <v>113.53440000000001</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="B10">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.7391304347826087E-2</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="C10" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="E10">
+        <v>17.5</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="3"/>
+        <v>124.15</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="B11">
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.8840579710144929E-2</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-100</v>
-      </c>
-      <c r="C11" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>0.18840579710144928</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="3"/>
+        <v>126.22</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12">
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2463768115942029E-2</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2771633051398829E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20701484592180755</v>
+        <v>0.20421607378129117</v>
+      </c>
+      <c r="E12">
+        <v>20.5</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H12">
+        <f ca="1">1000*INDIRECT("'Data Attributes'!D"&amp;ROW()) + M$3 *INDIRECT("'Data Attributes'!D"&amp;ROW()) *E12/100</f>
+        <v>141.119</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B13">
+        <f t="shared" ca="1" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.391304347826087E-2</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-110</v>
-      </c>
-      <c r="C13" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="3"/>
+        <v>143.39600000000002</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B14">
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8260869565217391E-2</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.797657774886142E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23313814790717852</v>
+        <v>0.23550724637681161</v>
+      </c>
+      <c r="E14">
+        <v>23.5</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="3"/>
+        <v>158.916</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B15">
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9710144927536233E-2</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.992843201040989E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.24940360008674908</v>
+        <v>0.24758454106280195</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="3"/>
+        <v>161.4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B16">
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.4782608695652174E-2</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" ca="1" si="2"/>
+        <v>0.26755852842809363</v>
+      </c>
+      <c r="E16">
+        <v>26.5</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="3"/>
+        <v>177.541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6231884057971016E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.27870680044593088</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="3"/>
+        <v>180.232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>203</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.5652173913043478E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32608695652173908</v>
+      </c>
+      <c r="E18">
+        <v>30.5</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>200</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.3105590062111801</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.31</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="3"/>
+        <v>199.892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>217</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.8550724637681161E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.32367149758454111</v>
+      </c>
+      <c r="E20">
+        <v>32.5</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="3"/>
+        <v>217.27500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>220</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0724637681159424E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33816425120772953</v>
+      </c>
+      <c r="E21">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="3"/>
+        <v>220.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>245</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.8695652173913045E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35790031813361611</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="3"/>
+        <v>245.4752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>260</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.9565217391304349E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.42417815482502652</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>276</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.101449275362319E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.39895782445855726</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="3"/>
+        <v>276.25599999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>293</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.46816479400749061</v>
+      </c>
+      <c r="E25">
+        <v>42</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="4"/>
+        <v>-193</v>
+      </c>
+      <c r="C26" s="1" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="1" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E26">
+        <v>44</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>329</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8550724637681164E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51062551625741537</v>
+      </c>
+      <c r="E27">
+        <v>46</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>363</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11159420289855072</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53394355453852027</v>
+      </c>
+      <c r="E28">
+        <v>48</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="4"/>
+        <v>-209</v>
+      </c>
+      <c r="C29" s="1" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="1" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>405</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.57971014492753625</v>
+      </c>
+      <c r="E30">
+        <v>52</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="4"/>
+        <v>-225</v>
+      </c>
+      <c r="C31" s="1" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D31" s="1" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E31">
         <v>53</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2652519893899204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="2"/>
-        <v>-130</v>
-      </c>
-      <c r="C17" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="2"/>
-        <v>-140</v>
-      </c>
-      <c r="C18" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="2"/>
-        <v>-140</v>
-      </c>
-      <c r="C19" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>225</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8796356538711776E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.32530904359141183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="2"/>
-        <v>-150</v>
-      </c>
-      <c r="C21" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D21" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-164</v>
-      </c>
-      <c r="C22" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D22" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="2"/>
-        <v>-164</v>
-      </c>
-      <c r="C23" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D23" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>287</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0917371502927776E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.39841219945465045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="2"/>
-        <v>-178</v>
-      </c>
-      <c r="C25" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D25" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="2"/>
-        <v>-193</v>
-      </c>
-      <c r="C26" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D26" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="2"/>
-        <v>-193</v>
-      </c>
-      <c r="C27" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D27" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="2"/>
-        <v>-209</v>
-      </c>
-      <c r="C28" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D28" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="2"/>
-        <v>-209</v>
-      </c>
-      <c r="C29" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D29" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="2"/>
-        <v>-225</v>
-      </c>
-      <c r="C30" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D30" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="2"/>
-        <v>-225</v>
-      </c>
-      <c r="C31" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D31" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+      <c r="G31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>448</v>
       </c>
       <c r="B32">
+        <f t="shared" ca="1" si="4"/>
+        <v>203</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14710144927536231</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.13207547169811321</v>
-      </c>
-      <c r="D32" s="1">
+        <v>0.60041407867494823</v>
+      </c>
+      <c r="E32">
+        <v>54</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="4"/>
+        <v>-245</v>
+      </c>
+      <c r="C33" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53908355795148244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-245</v>
-      </c>
-      <c r="C33" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D33" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33">
+        <v>55</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="4"/>
+        <v>-265</v>
+      </c>
+      <c r="C34" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34">
+      <c r="D34" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-265</v>
-      </c>
-      <c r="C34" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D34" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E34">
+        <v>56</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>497</v>
       </c>
       <c r="B35">
+        <f t="shared" ca="1" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1681159420289855</v>
+      </c>
+      <c r="D35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>232</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15094339622641509</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56959772160911348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.63439978124145469</v>
+      </c>
+      <c r="E35">
+        <v>57</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>539</v>
       </c>
       <c r="B36">
+        <f t="shared" ca="1" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.18405797101449275</v>
+      </c>
+      <c r="D36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>254</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1652569941444372</v>
-      </c>
-      <c r="D36" s="1">
+        <v>0.64581744215611503</v>
+      </c>
+      <c r="E36">
+        <v>58</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="4"/>
+        <v>-285</v>
+      </c>
+      <c r="C37" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57984910226118325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
+        <v>#N/A</v>
+      </c>
+      <c r="D37" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-285</v>
-      </c>
-      <c r="C37" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E37">
+        <v>59</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>586</v>
       </c>
       <c r="B38">
+        <f t="shared" ca="1" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2036231884057971</v>
+      </c>
+      <c r="D38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>281</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18282368249837344</v>
-      </c>
-      <c r="D38" s="1">
+        <v>0.66761701116654792</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="4"/>
+        <v>-305</v>
+      </c>
+      <c r="C39" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59942190983073262</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39">
+        <v>#N/A</v>
+      </c>
+      <c r="D39" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-305</v>
-      </c>
-      <c r="C39" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D39" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39">
+        <v>61</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="4"/>
+        <v>-325</v>
+      </c>
+      <c r="C40" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40">
+      <c r="D40" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-325</v>
-      </c>
-      <c r="C40" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D40" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E40">
+        <v>62</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>640</v>
       </c>
       <c r="B41">
+        <f t="shared" ca="1" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.22826086956521738</v>
+      </c>
+      <c r="D41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>315</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20494469746258945</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.63059906911565977</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.7023411371237458</v>
+      </c>
+      <c r="E41">
+        <v>63</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>692</v>
       </c>
       <c r="B42">
+        <f t="shared" ca="1" si="4"/>
+        <v>343</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24855072463768116</v>
+      </c>
+      <c r="D42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>343</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.22316200390370852</v>
-      </c>
-      <c r="D42" s="1">
+        <v>0.71217972675553343</v>
+      </c>
+      <c r="E42">
+        <v>64</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="4"/>
+        <v>-349</v>
+      </c>
+      <c r="C43" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63943267594185826</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-349</v>
-      </c>
-      <c r="C43" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D43" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43">
+        <v>65</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="4"/>
+        <v>-373</v>
+      </c>
+      <c r="C44" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0</v>
-      </c>
-      <c r="B44">
+      <c r="D44" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-373</v>
-      </c>
-      <c r="C44" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D44" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E44">
+        <v>66</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>757</v>
       </c>
       <c r="B45">
+        <f t="shared" ca="1" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27826086956521739</v>
+      </c>
+      <c r="D45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>384</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2498373454782043</v>
-      </c>
-      <c r="D45" s="1">
+        <v>0.74600769320433613</v>
+      </c>
+      <c r="E45">
+        <v>67</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-398</v>
+      </c>
+      <c r="C46" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66980521575926089</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0</v>
-      </c>
-      <c r="B46">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E46">
+        <v>68</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="4"/>
         <v>-398</v>
       </c>
-      <c r="C46" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D46" s="1" t="e">
+      <c r="C47" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0</v>
-      </c>
-      <c r="B47">
+      <c r="D47" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-398</v>
-      </c>
-      <c r="C47" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D47" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E47">
+        <v>69</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>880</v>
       </c>
       <c r="B48">
+        <f t="shared" ca="1" si="4"/>
+        <v>456</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33043478260869563</v>
+      </c>
+      <c r="D48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>456</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.2966818477553676</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.69972133904567835</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.77932731747333883</v>
+      </c>
+      <c r="E48">
+        <v>70</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>887</v>
       </c>
       <c r="B49">
+        <f t="shared" ca="1" si="4"/>
+        <v>463</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33550724637681162</v>
+      </c>
+      <c r="D49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>463</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.30123617436564737</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.71046267539067776</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.79129067541700859</v>
+      </c>
+      <c r="E49">
+        <v>71</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>948</v>
       </c>
       <c r="B50">
+        <f t="shared" ca="1" si="4"/>
+        <v>498</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36086956521739133</v>
+      </c>
+      <c r="D50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>498</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32400780741704621</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72001734981565824</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.80193236714975846</v>
+      </c>
+      <c r="E50">
+        <v>72</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>955</v>
       </c>
       <c r="B51">
+        <f t="shared" ca="1" si="4"/>
+        <v>505</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36594202898550726</v>
+      </c>
+      <c r="D51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>505</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32856213402732598</v>
-      </c>
-      <c r="D51" s="1">
+        <v>0.81320450885668283</v>
+      </c>
+      <c r="E51">
+        <v>73</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="4"/>
+        <v>-480</v>
+      </c>
+      <c r="C52" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73013807561627997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0</v>
-      </c>
-      <c r="B52">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-480</v>
-      </c>
-      <c r="C52" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52">
+        <v>74</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1033</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="4"/>
+        <v>553</v>
+      </c>
+      <c r="C53" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53">
+        <v>0.4007246376811594</v>
+      </c>
+      <c r="D53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-480</v>
-      </c>
-      <c r="C53" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D53" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.83484299516908211</v>
+      </c>
+      <c r="E53">
+        <v>75</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1106</v>
       </c>
       <c r="B54">
+        <f t="shared" ca="1" si="4"/>
+        <v>596</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43188405797101448</v>
+      </c>
+      <c r="D54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>596</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38776837996096292</v>
-      </c>
-      <c r="D54" s="1">
+        <v>0.84683148621767546</v>
+      </c>
+      <c r="E54">
+        <v>76</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="4"/>
+        <v>-510</v>
+      </c>
+      <c r="C55" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76033015678620175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55">
+        <v>#N/A</v>
+      </c>
+      <c r="D55" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-510</v>
-      </c>
-      <c r="C55" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D55" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E55">
+        <v>77</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1187</v>
       </c>
       <c r="B56">
+        <f t="shared" ca="1" si="4"/>
+        <v>647</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46884057971014492</v>
+      </c>
+      <c r="D56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>647</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42094990240728691</v>
-      </c>
-      <c r="D56" s="1">
+        <v>0.86822329575952761</v>
+      </c>
+      <c r="E56">
+        <v>78</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="4"/>
+        <v>-540</v>
+      </c>
+      <c r="C57" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77953685630979053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57">
+        <v>#N/A</v>
+      </c>
+      <c r="D57" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-540</v>
-      </c>
-      <c r="C57" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D57" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57">
+        <v>80</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="4"/>
+        <v>-570</v>
+      </c>
+      <c r="C58" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58">
+      <c r="D58" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E58">
+        <v>82</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="4"/>
         <v>-570</v>
       </c>
-      <c r="C58" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D58" s="1" t="e">
+      <c r="C59" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0</v>
-      </c>
-      <c r="B59">
+      <c r="D59" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-570</v>
-      </c>
-      <c r="C59" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D59" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59">
+        <v>84</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="4"/>
+        <v>-600</v>
+      </c>
+      <c r="C60" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>0</v>
-      </c>
-      <c r="B60">
+      <c r="D60" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-600</v>
-      </c>
-      <c r="C60" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D60" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E60">
+        <v>86</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1412</v>
       </c>
       <c r="B61">
+        <f t="shared" ca="1" si="4"/>
+        <v>812</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58840579710144925</v>
+      </c>
+      <c r="D61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>812</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.52830188679245282</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.88050314465408808</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.98067632850241548</v>
+      </c>
+      <c r="E61">
+        <v>88</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1511</v>
       </c>
       <c r="B62">
+        <f t="shared" ca="1" si="4"/>
+        <v>877</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63550724637681155</v>
+      </c>
+      <c r="D62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>877</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.57059206245933636</v>
-      </c>
-      <c r="D62" s="1">
+        <v>1.002377360215791</v>
+      </c>
+      <c r="E62">
+        <v>90</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="4"/>
+        <v>-634</v>
+      </c>
+      <c r="C63" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89998748021977337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>0</v>
-      </c>
-      <c r="B63">
+        <v>#N/A</v>
+      </c>
+      <c r="D63" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-634</v>
-      </c>
-      <c r="C63" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D63" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E63">
+        <v>92</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1633</v>
       </c>
       <c r="B64">
+        <f t="shared" ca="1" si="4"/>
+        <v>965</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69927536231884058</v>
+      </c>
+      <c r="D64" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>965</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.62784645413142481</v>
-      </c>
-      <c r="D64" s="1">
+        <v>1.046819404668923</v>
+      </c>
+      <c r="E64">
+        <v>94</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="4"/>
+        <v>-668</v>
+      </c>
+      <c r="C65" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93988990139434847</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>0</v>
-      </c>
-      <c r="B65">
+        <v>#N/A</v>
+      </c>
+      <c r="D65" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-668</v>
-      </c>
-      <c r="C65" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D65" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E65">
+        <v>96</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1751</v>
       </c>
       <c r="B66">
+        <f t="shared" ca="1" si="4"/>
+        <v>1048</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75942028985507248</v>
+      </c>
+      <c r="D66" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1048</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.68184775536759923</v>
-      </c>
-      <c r="D66" s="1">
+        <v>1.0802564578308287</v>
+      </c>
+      <c r="E66">
+        <v>97</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" ref="G66:G80" si="5">E66/100</f>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="4"/>
+        <v>-703</v>
+      </c>
+      <c r="C67" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96991145855988514</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0</v>
-      </c>
-      <c r="B67">
+        <v>#N/A</v>
+      </c>
+      <c r="D67" s="1" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-703</v>
-      </c>
-      <c r="C67" s="1" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D67" s="1" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+      <c r="E67">
+        <v>98</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="5"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1863</v>
       </c>
       <c r="B68">
+        <f t="shared" ca="1" si="4"/>
+        <v>1124</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8144927536231884</v>
+      </c>
+      <c r="D68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>1124</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.73129472999349376</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.98957338294112829</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1021552823047205</v>
+      </c>
+      <c r="E68">
+        <v>99</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="5"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-739</v>
       </c>
       <c r="C69" s="1" t="e">
-        <f t="shared" ref="C69:C80" ca="1" si="3">IF(B69/$M$3 &gt; 0, B69/$M$3, NA())</f>
+        <f t="shared" ref="C69:C80" ca="1" si="6">IF(B69/$M$3 &gt; 0, B69/$M$3, NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D69" s="1" t="e">
-        <f t="shared" ref="D69:D80" ca="1" si="4">IF(C69/INDIRECT("'Data Attributes'!D"&amp;ROW()) &gt; 0,C69/INDIRECT("'Data Attributes'!D"&amp;ROW()), NA())</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D69:D80" ca="1" si="7">IF(C69/INDIRECT("'Data Attributes'!D"&amp;ROW()) &gt; 0,C69/INDIRECT("'Data Attributes'!D"&amp;ROW()), NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>-775</v>
       </c>
       <c r="C70" s="1" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D70" s="1" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1966</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1191</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.77488614183474303</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.86304347826086958</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.9998530862383781</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1136044880785414</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2078</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:B80" ca="1" si="5">A72-INDIRECT("'Data Attributes'!B"&amp;ROW())</f>
+        <f t="shared" ref="B72:B80" ca="1" si="8">A72-INDIRECT("'Data Attributes'!B"&amp;ROW())</f>
         <v>1259</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.81912817176317498</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.91231884057971013</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0001564978793347</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1139424182902444</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-819</v>
       </c>
       <c r="C73" s="1" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D73" s="1" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>-863</v>
       </c>
       <c r="C74" s="1" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="6"/>
         <v>#N/A</v>
       </c>
       <c r="D74" s="1" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2189</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1326</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.86271958360442424</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.96086956521739131</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.9996750679077917</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1134062169378811</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2300</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1392</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.90566037735849059</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.008695652173913</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.99742332308203807</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1108982953457192</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2304</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1396</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.90826284970722182</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0115942028985507</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.0002894820564117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1140905318265977</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2400</v>
       </c>
       <c r="B78">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1446</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.94079375406636301</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0478260869565217</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.98615697491233023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0983501959711968</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2420</v>
       </c>
       <c r="B79">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1466</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.95380611581001951</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0623188405797102</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.9997967670964566</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.113541761613952</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2537</v>
       </c>
       <c r="B80">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1537</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.113768115942029</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="7"/>
+        <v>1.113768115942029</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9821,8 +10566,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9830,8 +10576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9844,7 +10590,7 @@
         <f>A1</f>
         <v>37</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="5">
         <f>B1/B$80</f>
         <v>3.6999999999999998E-2</v>
       </c>
@@ -9857,7 +10603,7 @@
         <f>B1+A2</f>
         <v>44</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="5">
         <f t="shared" ref="D2:D65" si="0">B2/B$80</f>
         <v>4.3999999999999997E-2</v>
       </c>
@@ -9870,7 +10616,7 @@
         <f t="shared" ref="B3:B66" si="1">B2+A3</f>
         <v>51</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>5.0999999999999997E-2</v>
       </c>
@@ -9883,7 +10629,7 @@
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>5.8000000000000003E-2</v>
       </c>
@@ -9896,7 +10642,7 @@
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
@@ -9909,7 +10655,7 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>7.1999999999999995E-2</v>
       </c>
@@ -9922,7 +10668,7 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>7.9000000000000001E-2</v>
       </c>
@@ -9935,7 +10681,7 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <f t="shared" si="0"/>
         <v>8.5999999999999993E-2</v>
       </c>
@@ -9948,7 +10694,7 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <f t="shared" si="0"/>
         <v>9.2999999999999999E-2</v>
       </c>
@@ -9961,7 +10707,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -9974,7 +10720,7 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -9987,7 +10733,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="5">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
@@ -10000,7 +10746,7 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="5">
         <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
@@ -10013,7 +10759,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="5">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
@@ -10026,7 +10772,7 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="5">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
@@ -10039,7 +10785,7 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="5">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
@@ -10052,7 +10798,7 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
@@ -10065,7 +10811,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="5">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
@@ -10078,7 +10824,7 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="5">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
@@ -10091,7 +10837,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="5">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -10104,7 +10850,7 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="5">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -10117,7 +10863,7 @@
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="5">
         <f t="shared" si="0"/>
         <v>0.16400000000000001</v>
       </c>
@@ -10130,7 +10876,7 @@
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="5">
         <f t="shared" si="0"/>
         <v>0.16400000000000001</v>
       </c>
@@ -10143,7 +10889,7 @@
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="5">
         <f t="shared" si="0"/>
         <v>0.17799999999999999</v>
       </c>
@@ -10156,7 +10902,7 @@
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="5">
         <f t="shared" si="0"/>
         <v>0.17799999999999999</v>
       </c>
@@ -10169,7 +10915,7 @@
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="5">
         <f t="shared" si="0"/>
         <v>0.193</v>
       </c>
@@ -10182,7 +10928,7 @@
         <f t="shared" si="1"/>
         <v>193</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="5">
         <f t="shared" si="0"/>
         <v>0.193</v>
       </c>
@@ -10195,7 +10941,7 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="5">
         <f t="shared" si="0"/>
         <v>0.20899999999999999</v>
       </c>
@@ -10208,7 +10954,7 @@
         <f t="shared" si="1"/>
         <v>209</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <f t="shared" si="0"/>
         <v>0.20899999999999999</v>
       </c>
@@ -10221,7 +10967,7 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="5">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
@@ -10234,7 +10980,7 @@
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="5">
         <f t="shared" si="0"/>
         <v>0.22500000000000001</v>
       </c>
@@ -10247,7 +10993,7 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="5">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
@@ -10260,7 +11006,7 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="5">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
@@ -10273,7 +11019,7 @@
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="5">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
@@ -10286,7 +11032,7 @@
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <f t="shared" si="0"/>
         <v>0.26500000000000001</v>
       </c>
@@ -10299,7 +11045,7 @@
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="5">
         <f t="shared" si="0"/>
         <v>0.28499999999999998</v>
       </c>
@@ -10312,7 +11058,7 @@
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
         <f t="shared" si="0"/>
         <v>0.28499999999999998</v>
       </c>
@@ -10325,7 +11071,7 @@
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="5">
         <f t="shared" si="0"/>
         <v>0.30499999999999999</v>
       </c>
@@ -10338,7 +11084,7 @@
         <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="5">
         <f t="shared" si="0"/>
         <v>0.30499999999999999</v>
       </c>
@@ -10351,7 +11097,7 @@
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="5">
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
@@ -10364,7 +11110,7 @@
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="5">
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
@@ -10377,7 +11123,7 @@
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="5">
         <f t="shared" si="0"/>
         <v>0.34899999999999998</v>
       </c>
@@ -10390,7 +11136,7 @@
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="5">
         <f t="shared" si="0"/>
         <v>0.34899999999999998</v>
       </c>
@@ -10403,7 +11149,7 @@
         <f t="shared" si="1"/>
         <v>373</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="5">
         <f t="shared" si="0"/>
         <v>0.373</v>
       </c>
@@ -10416,7 +11162,7 @@
         <f t="shared" si="1"/>
         <v>373</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="5">
         <f t="shared" si="0"/>
         <v>0.373</v>
       </c>
@@ -10429,7 +11175,7 @@
         <f t="shared" si="1"/>
         <v>398</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="5">
         <f t="shared" si="0"/>
         <v>0.39800000000000002</v>
       </c>
@@ -10442,7 +11188,7 @@
         <f t="shared" si="1"/>
         <v>398</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="5">
         <f t="shared" si="0"/>
         <v>0.39800000000000002</v>
       </c>
@@ -10455,7 +11201,7 @@
         <f t="shared" si="1"/>
         <v>424</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="5">
         <f t="shared" si="0"/>
         <v>0.42399999999999999</v>
       </c>
@@ -10468,7 +11214,7 @@
         <f t="shared" si="1"/>
         <v>424</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="5">
         <f t="shared" si="0"/>
         <v>0.42399999999999999</v>
       </c>
@@ -10481,7 +11227,7 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="5">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
@@ -10494,7 +11240,7 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="5">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
@@ -10507,7 +11253,7 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="5">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
@@ -10520,7 +11266,7 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="5">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
@@ -10533,7 +11279,7 @@
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="5">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
@@ -10546,7 +11292,7 @@
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="5">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
@@ -10559,7 +11305,7 @@
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="5">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
@@ -10572,7 +11318,7 @@
         <f t="shared" si="1"/>
         <v>540</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="5">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
@@ -10585,7 +11331,7 @@
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="5">
         <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
@@ -10598,7 +11344,7 @@
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="5">
         <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
@@ -10611,7 +11357,7 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="5">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -10624,7 +11370,7 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="5">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
@@ -10637,7 +11383,7 @@
         <f t="shared" si="1"/>
         <v>634</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="5">
         <f t="shared" si="0"/>
         <v>0.63400000000000001</v>
       </c>
@@ -10650,7 +11396,7 @@
         <f t="shared" si="1"/>
         <v>634</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="5">
         <f t="shared" si="0"/>
         <v>0.63400000000000001</v>
       </c>
@@ -10663,7 +11409,7 @@
         <f t="shared" si="1"/>
         <v>668</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="5">
         <f t="shared" si="0"/>
         <v>0.66800000000000004</v>
       </c>
@@ -10676,7 +11422,7 @@
         <f t="shared" si="1"/>
         <v>668</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="5">
         <f t="shared" si="0"/>
         <v>0.66800000000000004</v>
       </c>
@@ -10689,7 +11435,7 @@
         <f t="shared" si="1"/>
         <v>703</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="5">
         <f t="shared" ref="D66:D80" si="2">B66/B$80</f>
         <v>0.70299999999999996</v>
       </c>
@@ -10702,7 +11448,7 @@
         <f t="shared" ref="B67:B80" si="3">B66+A67</f>
         <v>703</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="5">
         <f t="shared" si="2"/>
         <v>0.70299999999999996</v>
       </c>
@@ -10715,7 +11461,7 @@
         <f t="shared" si="3"/>
         <v>739</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="5">
         <f t="shared" si="2"/>
         <v>0.73899999999999999</v>
       </c>
@@ -10728,7 +11474,7 @@
         <f t="shared" si="3"/>
         <v>739</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="5">
         <f t="shared" si="2"/>
         <v>0.73899999999999999</v>
       </c>
@@ -10741,7 +11487,7 @@
         <f t="shared" si="3"/>
         <v>775</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="5">
         <f t="shared" si="2"/>
         <v>0.77500000000000002</v>
       </c>
@@ -10754,7 +11500,7 @@
         <f t="shared" si="3"/>
         <v>775</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="5">
         <f t="shared" si="2"/>
         <v>0.77500000000000002</v>
       </c>
@@ -10767,7 +11513,7 @@
         <f t="shared" si="3"/>
         <v>819</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="5">
         <f t="shared" si="2"/>
         <v>0.81899999999999995</v>
       </c>
@@ -10780,7 +11526,7 @@
         <f t="shared" si="3"/>
         <v>819</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="5">
         <f t="shared" si="2"/>
         <v>0.81899999999999995</v>
       </c>
@@ -10793,7 +11539,7 @@
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="5">
         <f t="shared" si="2"/>
         <v>0.86299999999999999</v>
       </c>
@@ -10806,7 +11552,7 @@
         <f t="shared" si="3"/>
         <v>863</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="5">
         <f t="shared" si="2"/>
         <v>0.86299999999999999</v>
       </c>
@@ -10819,7 +11565,7 @@
         <f t="shared" si="3"/>
         <v>908</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="5">
         <f t="shared" si="2"/>
         <v>0.90800000000000003</v>
       </c>
@@ -10832,7 +11578,7 @@
         <f t="shared" si="3"/>
         <v>908</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="5">
         <f t="shared" si="2"/>
         <v>0.90800000000000003</v>
       </c>
@@ -10845,7 +11591,7 @@
         <f t="shared" si="3"/>
         <v>954</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="5">
         <f t="shared" si="2"/>
         <v>0.95399999999999996</v>
       </c>
@@ -10858,7 +11604,7 @@
         <f t="shared" si="3"/>
         <v>954</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="5">
         <f t="shared" si="2"/>
         <v>0.95399999999999996</v>
       </c>
@@ -10871,7 +11617,7 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -12139,15 +12885,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -12169,8 +12915,20 @@
       <c r="O1">
         <v>408</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1">
+        <v>509</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -12181,7 +12939,7 @@
         <v>609</v>
       </c>
       <c r="D2">
-        <f>(B2+C2)/2</f>
+        <f t="shared" ref="D2:D7" si="0">(B2+C2)/2</f>
         <v>580</v>
       </c>
       <c r="E2">
@@ -12211,8 +12969,20 @@
       <c r="O2">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2">
+        <v>1.8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -12223,7 +12993,7 @@
         <v>762</v>
       </c>
       <c r="D3">
-        <f>(B3+C3)/2</f>
+        <f t="shared" si="0"/>
         <v>726</v>
       </c>
       <c r="L3" t="s">
@@ -12235,8 +13005,20 @@
       <c r="O3">
         <v>489</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3">
+        <v>495</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -12247,7 +13029,7 @@
         <v>823</v>
       </c>
       <c r="D4">
-        <f>(B4+C4)/2</f>
+        <f t="shared" si="0"/>
         <v>784</v>
       </c>
       <c r="E4">
@@ -12277,8 +13059,20 @@
       <c r="O4">
         <v>624</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4">
+        <v>624</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -12289,7 +13083,7 @@
         <v>886</v>
       </c>
       <c r="D5">
-        <f>(B5+C5)/2</f>
+        <f t="shared" si="0"/>
         <v>844</v>
       </c>
       <c r="E5">
@@ -12317,8 +13111,22 @@
         <f>O1/O2/O3*O4</f>
         <v>289.2433537832311</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5">
+        <f>R1/R2/R3*R4</f>
+        <v>356.47138047138043</v>
+      </c>
+      <c r="T5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5">
+        <f>U1/U2/U3*U4</f>
+        <v>289.12863070539419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -12329,7 +13137,7 @@
         <v>1000</v>
       </c>
       <c r="D6">
-        <f>(B6+C6)/2</f>
+        <f t="shared" si="0"/>
         <v>952.5</v>
       </c>
       <c r="E6">
@@ -12348,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -12359,7 +13167,7 @@
         <v>1050</v>
       </c>
       <c r="D7">
-        <f>(B7+C7)/2</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="M7" t="s">
@@ -12368,8 +13176,11 @@
       <c r="O7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -12383,7 +13194,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>253</v>
       </c>
@@ -12405,7 +13216,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>27</v>
       </c>
@@ -12413,7 +13224,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>597</v>
       </c>
@@ -12434,8 +13245,20 @@
       <c r="M13">
         <v>2597</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <f>M5/R5</f>
+        <v>1.0605479636166706</v>
+      </c>
+      <c r="R13">
+        <f>R5/O5</f>
+        <v>1.2324272133095659</v>
+      </c>
+      <c r="T13">
+        <f>U5/O5</f>
+        <v>0.99960336831828156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>643</v>
       </c>
@@ -12457,8 +13280,12 @@
         <f>M10/M11/M12*M13</f>
         <v>948.67579908675793</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <f>M5/O5</f>
+        <v>1.3070481713812283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>727</v>
       </c>
@@ -12477,9 +13304,482 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M16" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21">
+        <v>2017</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="22" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <v>1.8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="23" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23">
+        <v>2525</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="24" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24">
+        <v>2579</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="25" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25">
+        <f>O21/O22/O23*O24</f>
+        <v>1144.519911991199</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25">
+        <f>R21/R22/R23*R24</f>
+        <v>1201.7938948013839</v>
+      </c>
+    </row>
+    <row r="27" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <f>R25/O25</f>
+        <v>1.0500419278075654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>298</v>
+      </c>
+      <c r="D4">
+        <v>474</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E11" si="0">D4-$F$2</f>
+        <v>101</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="1">E4/C4</f>
+        <v>0.33892617449664431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>271</v>
+      </c>
+      <c r="D5">
+        <v>465</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.33948339483394835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>139</v>
+      </c>
+      <c r="D6">
+        <v>420</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.33812949640287771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>123</v>
+      </c>
+      <c r="D7">
+        <v>415</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.34146341463414637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>363</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.34986225895316803</v>
+      </c>
+      <c r="G8">
+        <f>F8/F7</f>
+        <v>1.0245966155057062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>408</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.32710280373831774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>408</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>121</v>
+      </c>
+      <c r="D11">
+        <v>416</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.35537190082644626</v>
+      </c>
+      <c r="G11">
+        <f>F11/F10</f>
+        <v>1.0153482880755609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>1211</v>
+      </c>
+      <c r="D13">
+        <v>799</v>
+      </c>
+      <c r="E13">
+        <f>D13-$F$2</f>
+        <v>426</v>
+      </c>
+      <c r="F13">
+        <f>E13/C13</f>
+        <v>0.35177539223782001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>995</v>
+      </c>
+      <c r="D14">
+        <v>714</v>
+      </c>
+      <c r="E14">
+        <f>D14-$F$2</f>
+        <v>341</v>
+      </c>
+      <c r="F14">
+        <f>E14/C14</f>
+        <v>0.34271356783919599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>1211</v>
+      </c>
+      <c r="H20">
+        <f>363/F20</f>
+        <v>0.29975227085053674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>120</v>
+      </c>
+      <c r="D21">
+        <v>253</v>
+      </c>
+      <c r="E21">
+        <f>D21-C21</f>
+        <v>133</v>
+      </c>
+      <c r="F21">
+        <f>E21/$F$20</f>
+        <v>0.10982658959537572</v>
+      </c>
+      <c r="H21">
+        <f>E21*H$20</f>
+        <v>39.867052023121389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>373</v>
+      </c>
+      <c r="D22">
+        <v>799</v>
+      </c>
+      <c r="E22">
+        <f>D22-C22</f>
+        <v>426</v>
+      </c>
+      <c r="F22">
+        <f>E22/$F$20</f>
+        <v>0.35177539223782001</v>
+      </c>
+      <c r="H22">
+        <f>E22*H$20</f>
+        <v>127.69446738232865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>600</v>
+      </c>
+      <c r="D23">
+        <v>1279</v>
+      </c>
+      <c r="E23">
+        <f>D23-C23</f>
+        <v>679</v>
+      </c>
+      <c r="F23">
+        <f>E23/$F$20</f>
+        <v>0.56069364161849711</v>
+      </c>
+      <c r="H23">
+        <f>E23*H$20</f>
+        <v>203.53179190751445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>819</v>
+      </c>
+      <c r="D24">
+        <v>1672</v>
+      </c>
+      <c r="E24">
+        <f>D24-C24</f>
+        <v>853</v>
+      </c>
+      <c r="F24">
+        <f>E24/$F$20</f>
+        <v>0.7043765483071841</v>
+      </c>
+      <c r="H24">
+        <f>E24*H$20</f>
+        <v>255.68868703550783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>79</v>
+      </c>
+      <c r="C25">
+        <v>954</v>
+      </c>
+      <c r="D25">
+        <v>1933</v>
+      </c>
+      <c r="E25">
+        <f>D25-C25</f>
+        <v>979</v>
+      </c>
+      <c r="F25">
+        <f>E25/$F$20</f>
+        <v>0.80842279108175064</v>
+      </c>
+      <c r="H25">
+        <f>E25*H$20</f>
+        <v>293.45747316267546</v>
       </c>
     </row>
   </sheetData>
